--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -48,9 +48,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>opening sound track, sets the player in the mood for the game, slow start, builds up drame towards the end</t>
-  </si>
-  <si>
     <t>reference</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=LBQJKCLCn9E</t>
+  </si>
+  <si>
+    <t>opening sound track, sets the player in the mood for the game, slow start, builds up drama towards the end</t>
   </si>
 </sst>
 </file>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -566,203 +566,203 @@
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>#</t>
   </si>
@@ -163,6 +163,105 @@
   </si>
   <si>
     <t>opening sound track, sets the player in the mood for the game, slow start, builds up drama towards the end</t>
+  </si>
+  <si>
+    <t>A013</t>
+  </si>
+  <si>
+    <t>A014</t>
+  </si>
+  <si>
+    <t>A015</t>
+  </si>
+  <si>
+    <t>A016</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>A020</t>
+  </si>
+  <si>
+    <t>Attack Shout (human)</t>
+  </si>
+  <si>
+    <t>units march (human)</t>
+  </si>
+  <si>
+    <t>Start Battle</t>
+  </si>
+  <si>
+    <t>world map to combat map, signals beginning of combat, battle drum sounding and slowly fading away in long echo while the view on your screen changes completely from the world map to the combat map in a blurry zoom like effect</t>
+  </si>
+  <si>
+    <t>Battle Music Track - Drama 1</t>
+  </si>
+  <si>
+    <t>Battle Music Track - Drama 2</t>
+  </si>
+  <si>
+    <t>Battle Music Track - Drama 3</t>
+  </si>
+  <si>
+    <t>the music in the combat mode, This music is more intense, faster, and wilder, a strong primeval beat from drums makes your shoulders shrink and your breathing fastens, it increases intensity and drama in multiple layers activated by the remaining hitpoint off all units in the battle, the less HPs remaining activate the next step in intensity and drama</t>
+  </si>
+  <si>
+    <t>sound of an arrow flying</t>
+  </si>
+  <si>
+    <t>sound of an arrow hitting</t>
+  </si>
+  <si>
+    <t>A021</t>
+  </si>
+  <si>
+    <t>A022</t>
+  </si>
+  <si>
+    <t>A023</t>
+  </si>
+  <si>
+    <t>A024</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>A026</t>
+  </si>
+  <si>
+    <t>A027</t>
+  </si>
+  <si>
+    <t>A028</t>
+  </si>
+  <si>
+    <t>Horned Lion roar</t>
+  </si>
+  <si>
+    <t>Horned Lion roar lauder roar</t>
+  </si>
+  <si>
+    <t>unit hit by a claw attack</t>
+  </si>
+  <si>
+    <t>unit shout dying</t>
+  </si>
+  <si>
+    <t>End Battly Vicory</t>
+  </si>
+  <si>
+    <t>End Battly Defeat</t>
+  </si>
+  <si>
+    <t>a horn, cheerfull, epic, will give the player feeling of victory, domination, celebration, confidance, rewarding sound</t>
   </si>
 </sst>
 </file>
@@ -515,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,6 +862,227 @@
       </c>
       <c r="G13" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -262,6 +265,57 @@
   </si>
   <si>
     <t>a horn, cheerfull, epic, will give the player feeling of victory, domination, celebration, confidance, rewarding sound</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>one drum hit</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>combat map</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>player unit human die</t>
+  </si>
+  <si>
+    <t>a unit of the player is killed - human diying sound</t>
+  </si>
+  <si>
+    <t>World map main track</t>
+  </si>
+  <si>
+    <t>sound loop world map, 2min at least, not desturbing, smooth, complimenting to the world map, really background stuff, percusion, maby horns, primal, close to nature</t>
+  </si>
+  <si>
+    <t>worldmusic</t>
+  </si>
+  <si>
+    <t>A029</t>
+  </si>
+  <si>
+    <t>A030</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>A032</t>
+  </si>
+  <si>
+    <t>Axe hit enemy</t>
+  </si>
+  <si>
+    <t>the player's unit armed with his axe hits an opponent</t>
   </si>
 </sst>
 </file>
@@ -614,16 +668,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="129.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -653,30 +705,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -684,16 +739,19 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -701,36 +759,39 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="E4" t="s">
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -738,16 +799,16 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
-        <v>25</v>
+      <c r="E6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -755,16 +816,16 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
+      <c r="E7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -772,16 +833,16 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
+      <c r="E8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -789,16 +850,19 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -806,33 +870,42 @@
       <c r="D10" t="s">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
@@ -840,64 +913,85 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>47</v>
+      <c r="E13" t="s">
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -905,151 +999,196 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -1057,38 +1196,111 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="G26" t="s">
-        <v>81</v>
+      <c r="E26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1">
+    <sortState ref="A2:G33">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F13" r:id="rId2"/>
+    <hyperlink ref="F14" r:id="rId1"/>
+    <hyperlink ref="F23" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -261,9 +261,6 @@
     <t>End Battly Vicory</t>
   </si>
   <si>
-    <t>End Battly Defeat</t>
-  </si>
-  <si>
     <t>a horn, cheerfull, epic, will give the player feeling of victory, domination, celebration, confidance, rewarding sound</t>
   </si>
   <si>
@@ -316,6 +313,21 @@
   </si>
   <si>
     <t>the player's unit armed with his axe hits an opponent</t>
+  </si>
+  <si>
+    <t>Blade Cuts Flesh</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Merrganaut hit</t>
+  </si>
+  <si>
+    <t>unit hit (Human)</t>
+  </si>
+  <si>
+    <t>End Battle Defeat</t>
   </si>
 </sst>
 </file>
@@ -670,7 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -717,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -737,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -760,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -780,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>64</v>
@@ -797,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,10 +828,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -834,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,10 +865,10 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -862,19 +876,19 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,7 +896,7 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -891,33 +905,33 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" t="s">
         <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -934,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
         <v>64</v>
@@ -954,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -977,7 +991,7 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
@@ -1000,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1020,7 +1034,7 @@
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
         <v>28</v>
@@ -1040,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -1060,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
         <v>33</v>
@@ -1080,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s">
         <v>37</v>
@@ -1100,7 +1114,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -1120,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -1140,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>47</v>
@@ -1163,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1180,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1197,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1214,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
         <v>22</v>
@@ -1234,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1242,7 +1256,7 @@
         <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -1251,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,7 +1285,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
         <v>64</v>
@@ -1279,17 +1293,44 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>#</t>
   </si>
@@ -87,93 +87,24 @@
     <t>Unit move (tribesman)</t>
   </si>
   <si>
-    <t>a walking sound, steps (outdoor), (maybe) combined with heavy breathing</t>
-  </si>
-  <si>
     <t>A005</t>
   </si>
   <si>
     <t>Collect food</t>
   </si>
   <si>
-    <t>sound of picking fruit or something</t>
-  </si>
-  <si>
-    <t>A006</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>sound of hunting, so something like a bow shooting arrow and a dear cry or something like that</t>
-  </si>
-  <si>
     <t>A007</t>
   </si>
   <si>
-    <t>a pickaxe hiting a rock</t>
-  </si>
-  <si>
-    <t>Collect Resource 1</t>
-  </si>
-  <si>
     <t>A008</t>
   </si>
   <si>
-    <t>an axe hitting a tree</t>
-  </si>
-  <si>
-    <t>Collect Resource 2</t>
-  </si>
-  <si>
-    <t>A009</t>
-  </si>
-  <si>
-    <t>Make a camp</t>
-  </si>
-  <si>
-    <t>stuff like bags falling on the ground mixed with sound of a bon fire</t>
-  </si>
-  <si>
-    <t>A010</t>
-  </si>
-  <si>
-    <t>Cook</t>
-  </si>
-  <si>
-    <t>A011</t>
-  </si>
-  <si>
-    <t>Craft</t>
-  </si>
-  <si>
-    <t>A012</t>
-  </si>
-  <si>
-    <t>Rest</t>
-  </si>
-  <si>
-    <t>sound of somthing boiling on a pot, mixed with sound of bon fire</t>
-  </si>
-  <si>
-    <t>Sound of hammer hitting iron</t>
-  </si>
-  <si>
-    <t>sound of a man beeing tired and sleepy</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LBQJKCLCn9E</t>
-  </si>
-  <si>
     <t>opening sound track, sets the player in the mood for the game, slow start, builds up drama towards the end</t>
   </si>
   <si>
     <t>A013</t>
   </si>
   <si>
-    <t>A014</t>
-  </si>
-  <si>
     <t>A015</t>
   </si>
   <si>
@@ -186,18 +117,9 @@
     <t>A018</t>
   </si>
   <si>
-    <t>A019</t>
-  </si>
-  <si>
-    <t>A020</t>
-  </si>
-  <si>
     <t>Attack Shout (human)</t>
   </si>
   <si>
-    <t>units march (human)</t>
-  </si>
-  <si>
     <t>Start Battle</t>
   </si>
   <si>
@@ -216,12 +138,6 @@
     <t>the music in the combat mode, This music is more intense, faster, and wilder, a strong primeval beat from drums makes your shoulders shrink and your breathing fastens, it increases intensity and drama in multiple layers activated by the remaining hitpoint off all units in the battle, the less HPs remaining activate the next step in intensity and drama</t>
   </si>
   <si>
-    <t>sound of an arrow flying</t>
-  </si>
-  <si>
-    <t>sound of an arrow hitting</t>
-  </si>
-  <si>
     <t>A021</t>
   </si>
   <si>
@@ -231,9 +147,6 @@
     <t>A023</t>
   </si>
   <si>
-    <t>A024</t>
-  </si>
-  <si>
     <t>A025</t>
   </si>
   <si>
@@ -255,9 +168,6 @@
     <t>unit hit by a claw attack</t>
   </si>
   <si>
-    <t>unit shout dying</t>
-  </si>
-  <si>
     <t>End Battly Vicory</t>
   </si>
   <si>
@@ -316,13 +226,80 @@
   </si>
   <si>
     <t>the player's unit armed with his axe hits an opponent</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>check game play for reference</t>
+  </si>
+  <si>
+    <t>Collect stone</t>
+  </si>
+  <si>
+    <t>Collect wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a pickaxe hiting a rock, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check game play for reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>an axe hitting a tree,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> check game play for reference</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check game play for reference</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a walking sound, steps (outdoor), (maybe) combined with heavy breathing</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +315,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,18 +353,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -382,7 +383,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -456,7 +457,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -491,7 +491,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Larissa">
@@ -667,12 +666,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -680,7 +681,7 @@
     <col min="7" max="7" width="129.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -703,55 +704,58 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -760,38 +764,41 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -800,15 +807,18 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -817,52 +827,58 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -871,18 +887,18 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -891,41 +907,38 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -934,398 +947,214 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
         <v>66</v>
-      </c>
-      <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G33">
-      <sortCondition descending="1" ref="E1"/>
+    <sortState ref="A2:G24">
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="F14" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
   <si>
     <t>#</t>
   </si>
@@ -294,12 +294,39 @@
       <t>, a walking sound, steps (outdoor), (maybe) combined with heavy breathing</t>
     </r>
   </si>
+  <si>
+    <t>sliding rock tablet</t>
+  </si>
+  <si>
+    <t>each attack appears as a stone tablet, when you select it (or mouse over?) it slides up with a "sliding rocks" noise.</t>
+  </si>
+  <si>
+    <t>Horned Lion death</t>
+  </si>
+  <si>
+    <t>Healing Magic sound</t>
+  </si>
+  <si>
+    <t>Magic shield sound</t>
+  </si>
+  <si>
+    <t>A033</t>
+  </si>
+  <si>
+    <t>Lound swinging sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for powerful attacks </t>
+  </si>
+  <si>
+    <t>A034</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,7 +396,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,14 +405,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -423,9 +453,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +487,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,9 +522,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -666,14 +698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
@@ -681,7 +713,7 @@
     <col min="7" max="7" width="129.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,7 +759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -750,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -773,7 +805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -793,7 +825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -813,7 +845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -833,7 +865,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -853,7 +885,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -873,7 +905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -893,7 +925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -913,7 +945,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -933,7 +965,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
@@ -953,7 +985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -970,7 +1002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -987,7 +1019,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -1004,7 +1036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1024,7 +1056,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1044,7 +1076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -1087,7 +1119,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1107,19 +1139,95 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1137,24 +1245,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>A034</t>
+  </si>
+  <si>
+    <t>A035</t>
+  </si>
+  <si>
+    <t>Short growing male choir</t>
+  </si>
+  <si>
+    <t>for when you aquire new powers (buy cards)</t>
   </si>
 </sst>
 </file>
@@ -699,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1237,26 @@
       </c>
       <c r="G26" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Game Design/Audio_Itemslist.xlsx
+++ b/Game Design/Audio_Itemslist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>#</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>DONE</t>
-  </si>
-  <si>
-    <t>check game play for reference</t>
   </si>
   <si>
     <t>Collect stone</t>
@@ -298,9 +295,6 @@
     <t>sliding rock tablet</t>
   </si>
   <si>
-    <t>each attack appears as a stone tablet, when you select it (or mouse over?) it slides up with a "sliding rocks" noise.</t>
-  </si>
-  <si>
     <t>Horned Lion death</t>
   </si>
   <si>
@@ -329,13 +323,98 @@
   </si>
   <si>
     <t>for when you aquire new powers (buy cards)</t>
+  </si>
+  <si>
+    <t>231537__vkproduktion__forest-birds-loop-02</t>
+  </si>
+  <si>
+    <t>Forest sound</t>
+  </si>
+  <si>
+    <t>A036</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>A037</t>
+  </si>
+  <si>
+    <t>76731__jobro__savanna-stomp-groove</t>
+  </si>
+  <si>
+    <t>Cool drum beat, maybe to use in menu or ingame</t>
+  </si>
+  <si>
+    <t>Tribal Drums</t>
+  </si>
+  <si>
+    <t>Jungle sound, maybe first 20 - 30 sec and then loop (?)</t>
+  </si>
+  <si>
+    <t>Jungle (Birds)</t>
+  </si>
+  <si>
+    <t>A038_2</t>
+  </si>
+  <si>
+    <t>A038_1</t>
+  </si>
+  <si>
+    <t>Jungle (insects)</t>
+  </si>
+  <si>
+    <t>184798__calcuttan__tropical-orchard-in-spring</t>
+  </si>
+  <si>
+    <t>177687__kyles__thailand-jungle-night-heavy-crickets1.flac</t>
+  </si>
+  <si>
+    <t>160756__cosmicembers__fast-swing-air-woosh</t>
+  </si>
+  <si>
+    <t>249818__spookymodem__magic-shield</t>
+  </si>
+  <si>
+    <t>From Toma: only the first 1 sec and then fade out (?)</t>
+  </si>
+  <si>
+    <t>106814__gunnbladez__120-concerta-male-choir-02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DONE </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>105280__mbezzola__stein-aufschlag-mit-langem-decay-03 oder 95000__j1987__cinderblockmove</t>
+  </si>
+  <si>
+    <t>(2 sfx in refference) each attack appears as a stone tablet, when you select it (or mouse over?) it slides up with a "sliding rocks" noise.</t>
+  </si>
+  <si>
+    <t>202145__junkfood2121__crunching</t>
+  </si>
+  <si>
+    <t>(first 3 sec) check game play for reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,6 +441,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +492,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="2" builtinId="26"/>
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,9 +509,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,9 +549,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +586,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -534,7 +621,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -708,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +918,7 @@
         <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,14 +931,17 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="D6" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E6" t="s">
         <v>52</v>
       </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,19 +949,19 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E7" t="s">
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -879,19 +969,19 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,19 +1243,22 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" t="s">
-        <v>6</v>
+      <c r="D22" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>52</v>
       </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,7 +1266,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -1190,7 +1283,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1204,64 +1297,168 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" t="s">
-        <v>6</v>
+      <c r="D25" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E25" t="s">
         <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D26" t="s">
-        <v>6</v>
+      <c r="D26" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E26" t="s">
         <v>52</v>
       </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G24">
+    <sortState ref="A2:G28">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
